--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AR2_50_6_qoq_errors_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AR2_50_6_qoq_errors_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Q0</t>
   </si>
@@ -37,91 +37,46 @@
     <t>Q6</t>
   </si>
   <si>
-    <t>2010-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2010-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2017-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2017-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2017-07-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2017-10-01 00:00:00_diff</t>
@@ -506,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,25 +495,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.4002100483944533</v>
+        <v>0.1630846444411361</v>
       </c>
       <c r="C2">
-        <v>0.3384736943274866</v>
+        <v>-1.088872551767469</v>
       </c>
       <c r="D2">
-        <v>-0.990513127499479</v>
+        <v>0.2388572144868575</v>
       </c>
       <c r="E2">
-        <v>0.2976846591550343</v>
+        <v>-0.1694399950501343</v>
       </c>
       <c r="F2">
-        <v>-0.1296284289204657</v>
+        <v>0.5040425926957953</v>
       </c>
       <c r="G2">
-        <v>0.5346354081632556</v>
+        <v>-0.1932960119371557</v>
       </c>
       <c r="H2">
-        <v>-0.1671633680113848</v>
+        <v>0.04367710249015017</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -566,25 +521,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1630846444411361</v>
+        <v>0.6966127121850244</v>
       </c>
       <c r="C3">
-        <v>-1.088872551767469</v>
+        <v>0.03971143396413679</v>
       </c>
       <c r="D3">
-        <v>0.2388572144868575</v>
+        <v>0.6050679262073962</v>
       </c>
       <c r="E3">
-        <v>-0.1694399950501343</v>
+        <v>-0.1390344077924999</v>
       </c>
       <c r="F3">
-        <v>0.5040425926957953</v>
+        <v>0.07771993578465181</v>
       </c>
       <c r="G3">
-        <v>-0.1932960119371557</v>
+        <v>0.1045584651549948</v>
       </c>
       <c r="H3">
-        <v>0.04367710249015017</v>
+        <v>0.9267429767877318</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -592,25 +547,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-1.155915471678959</v>
+        <v>0.5889366529896609</v>
       </c>
       <c r="C4">
-        <v>0.21279883893396</v>
+        <v>-0.1629753181314043</v>
       </c>
       <c r="D4">
-        <v>-0.1757947648750231</v>
+        <v>0.05339438235456767</v>
       </c>
       <c r="E4">
-        <v>0.5070296753372293</v>
+        <v>0.08260390735964929</v>
       </c>
       <c r="F4">
-        <v>-0.1858812036062928</v>
+        <v>0.906862924893769</v>
       </c>
       <c r="G4">
-        <v>0.05318677291440016</v>
+        <v>0.2504397716903112</v>
       </c>
       <c r="H4">
-        <v>0.08975136147210222</v>
+        <v>-0.4078772338215886</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -618,25 +573,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6966127121850244</v>
+        <v>0.135347353279659</v>
       </c>
       <c r="C5">
-        <v>0.03971143396413679</v>
+        <v>0.0918012475915978</v>
       </c>
       <c r="D5">
-        <v>0.6050679262073962</v>
+        <v>0.8871553623927978</v>
       </c>
       <c r="E5">
-        <v>-0.1390344077924999</v>
+        <v>0.2212014561932883</v>
       </c>
       <c r="F5">
-        <v>0.07771993578465181</v>
+        <v>-0.4400216186372514</v>
       </c>
       <c r="G5">
-        <v>0.1045584651549948</v>
+        <v>-0.04180104165272297</v>
       </c>
       <c r="H5">
-        <v>0.9267429767877318</v>
+        <v>-0.1034922560287353</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -644,25 +599,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.3216239251974056</v>
+        <v>0.8583540716299061</v>
       </c>
       <c r="C6">
-        <v>0.4546109229634878</v>
+        <v>0.219077672514715</v>
       </c>
       <c r="D6">
-        <v>-0.197733038009959</v>
+        <v>-0.4327386538548288</v>
       </c>
       <c r="E6">
-        <v>0.05569497942404777</v>
+        <v>-0.03138452870947878</v>
       </c>
       <c r="F6">
-        <v>0.09696826088581312</v>
+        <v>-0.09205111059441351</v>
       </c>
       <c r="G6">
-        <v>0.9248856111818131</v>
+        <v>-0.5259549742272362</v>
       </c>
       <c r="H6">
-        <v>0.2695245752371857</v>
+        <v>0.452935276392097</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -670,25 +625,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5889366529896609</v>
+        <v>-0.5546208149506421</v>
       </c>
       <c r="C7">
-        <v>-0.1629753181314043</v>
+        <v>-0.1232296976428027</v>
       </c>
       <c r="D7">
-        <v>0.05339438235456767</v>
+        <v>-0.1719238571658218</v>
       </c>
       <c r="E7">
-        <v>0.08260390735964929</v>
+        <v>-0.6008843017759042</v>
       </c>
       <c r="F7">
-        <v>0.906862924893769</v>
+        <v>0.3800526390729398</v>
       </c>
       <c r="G7">
-        <v>0.2504397716903112</v>
+        <v>0.1538132908583271</v>
       </c>
       <c r="H7">
-        <v>-0.4078772338215886</v>
+        <v>-0.4792866254931878</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -696,25 +651,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.4586960785766434</v>
+        <v>-0.07660908550845907</v>
       </c>
       <c r="C8">
-        <v>-0.07450690635861121</v>
+        <v>-0.5226165970886194</v>
       </c>
       <c r="D8">
-        <v>0.01835154376916842</v>
+        <v>0.4506431296588137</v>
       </c>
       <c r="E8">
-        <v>0.8640175999855662</v>
+        <v>0.2208746131534756</v>
       </c>
       <c r="F8">
-        <v>0.2144476383754059</v>
+        <v>-0.4138532542967197</v>
       </c>
       <c r="G8">
-        <v>-0.4417241183566191</v>
+        <v>0.01293740259710929</v>
       </c>
       <c r="H8">
-        <v>-0.0419872825436225</v>
+        <v>-0.153689426264273</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -722,25 +677,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.135347353279659</v>
+        <v>0.7107656714615536</v>
       </c>
       <c r="C9">
-        <v>0.0918012475915978</v>
+        <v>0.3617805447359003</v>
       </c>
       <c r="D9">
-        <v>0.8871553623927978</v>
+        <v>-0.3284087146615119</v>
       </c>
       <c r="E9">
-        <v>0.2212014561932883</v>
+        <v>0.07258913989446059</v>
       </c>
       <c r="F9">
-        <v>-0.4400216186372514</v>
+        <v>-0.106032695953167</v>
       </c>
       <c r="G9">
-        <v>-0.04180104165272297</v>
+        <v>0.01096152432303771</v>
       </c>
       <c r="H9">
-        <v>-0.1034922560287353</v>
+        <v>0.0555349373482778</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -748,25 +703,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02298164800121733</v>
+        <v>-0.5260169647433546</v>
       </c>
       <c r="C10">
-        <v>0.855185240197863</v>
+        <v>-0.05137068376835741</v>
       </c>
       <c r="D10">
-        <v>0.2027211576639576</v>
+        <v>-0.1974123165853111</v>
       </c>
       <c r="E10">
-        <v>-0.4542046260268071</v>
+        <v>-0.06599669411565129</v>
       </c>
       <c r="F10">
-        <v>-0.05470507858934281</v>
+        <v>-0.01502993377330319</v>
       </c>
       <c r="G10">
-        <v>-0.1160301397672873</v>
+        <v>-0.410047744940668</v>
       </c>
       <c r="H10">
-        <v>-0.5501653216690899</v>
+        <v>-0.1553091497739889</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -774,25 +729,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8583540716299061</v>
+        <v>-0.1300102632924844</v>
       </c>
       <c r="C11">
-        <v>0.219077672514715</v>
+        <v>0.00888099880676374</v>
       </c>
       <c r="D11">
-        <v>-0.4327386538548288</v>
+        <v>0.06313616294635133</v>
       </c>
       <c r="E11">
-        <v>-0.03138452870947878</v>
+        <v>-0.3304359561846383</v>
       </c>
       <c r="F11">
-        <v>-0.09205111059441351</v>
+        <v>-0.07506199009359621</v>
       </c>
       <c r="G11">
-        <v>-0.5259549742272362</v>
+        <v>0.1456359881641034</v>
       </c>
       <c r="H11">
-        <v>0.452935276392097</v>
+        <v>-0.08990357932170889</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -800,25 +755,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.1959823739355064</v>
+        <v>0.05077946203237782</v>
       </c>
       <c r="C12">
-        <v>-0.6068146399902745</v>
+        <v>-0.344626946110449</v>
       </c>
       <c r="D12">
-        <v>-0.1108717664278041</v>
+        <v>-0.09000824431623794</v>
       </c>
       <c r="E12">
-        <v>-0.1370924077686782</v>
+        <v>0.1303795298704019</v>
       </c>
       <c r="F12">
-        <v>-0.5587258120293223</v>
+        <v>-0.1052864881356162</v>
       </c>
       <c r="G12">
-        <v>0.4245053195966567</v>
+        <v>-0.2842023355090271</v>
       </c>
       <c r="H12">
-        <v>0.1989517400199232</v>
+        <v>-0.2947364119262331</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -826,25 +781,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.5546208149506421</v>
+        <v>0.0822944582731665</v>
       </c>
       <c r="C13">
-        <v>-0.1232296976428027</v>
+        <v>0.2248716626294139</v>
       </c>
       <c r="D13">
-        <v>-0.1719238571658218</v>
+        <v>-0.04696104924847117</v>
       </c>
       <c r="E13">
-        <v>-0.6008843017759042</v>
+        <v>-0.2426806063420137</v>
       </c>
       <c r="F13">
-        <v>0.3800526390729398</v>
+        <v>-0.2610220372837692</v>
       </c>
       <c r="G13">
-        <v>0.1538132908583271</v>
+        <v>-0.4723563104746108</v>
       </c>
       <c r="H13">
-        <v>-0.4792866254931878</v>
+        <v>-0.2568270884946112</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -852,25 +807,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1612685553905128</v>
+        <v>-0.1414695961309799</v>
       </c>
       <c r="C14">
-        <v>-0.01832100834639039</v>
+        <v>-0.2791950053566942</v>
       </c>
       <c r="D14">
-        <v>-0.5051411089995838</v>
+        <v>-0.2708243371007503</v>
       </c>
       <c r="E14">
-        <v>0.4503184410901135</v>
+        <v>-0.4698642071905083</v>
       </c>
       <c r="F14">
-        <v>0.2128577866830093</v>
+        <v>-0.2486761060184952</v>
       </c>
       <c r="G14">
-        <v>-0.4251865148820775</v>
+        <v>0.06283442082819635</v>
       </c>
       <c r="H14">
-        <v>0.000178660825269128</v>
+        <v>-0.09063329381595758</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -878,25 +833,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.07660908550845907</v>
+        <v>-0.1284196148407921</v>
       </c>
       <c r="C15">
-        <v>-0.5226165970886194</v>
+        <v>-0.3892880536239818</v>
       </c>
       <c r="D15">
-        <v>0.4506431296588137</v>
+        <v>-0.1956617690156243</v>
       </c>
       <c r="E15">
-        <v>0.2208746131534756</v>
+        <v>0.1035623046680138</v>
       </c>
       <c r="F15">
-        <v>-0.4138532542967197</v>
+        <v>-0.05538318383206281</v>
       </c>
       <c r="G15">
-        <v>0.01293740259710929</v>
+        <v>0.5929841687531761</v>
       </c>
       <c r="H15">
-        <v>-0.153689426264273</v>
+        <v>0.3759056446645694</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -904,25 +859,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.4898535800886138</v>
+        <v>-0.01772937608965819</v>
       </c>
       <c r="C16">
-        <v>0.4644238466829791</v>
+        <v>0.1904199002428446</v>
       </c>
       <c r="D16">
-        <v>0.2254449598814842</v>
+        <v>-0.01245745804686382</v>
       </c>
       <c r="E16">
-        <v>-0.4137222414955727</v>
+        <v>0.6148928434241717</v>
       </c>
       <c r="F16">
-        <v>0.01092793684739168</v>
+        <v>0.3877598625592121</v>
       </c>
       <c r="G16">
-        <v>-0.1567309124782608</v>
+        <v>-0.02448210058422801</v>
       </c>
       <c r="H16">
-        <v>-0.03465606160087548</v>
+        <v>0.4720825582591874</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -930,25 +885,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7107656714615536</v>
+        <v>0.2009879203755026</v>
       </c>
       <c r="C17">
-        <v>0.3617805447359003</v>
+        <v>-0.003682669475092215</v>
       </c>
       <c r="D17">
-        <v>-0.3284087146615119</v>
+        <v>0.6226952474679071</v>
       </c>
       <c r="E17">
-        <v>0.07258913989446059</v>
+        <v>0.3950699233937206</v>
       </c>
       <c r="F17">
-        <v>-0.106032695953167</v>
+        <v>-0.01742125293059998</v>
       </c>
       <c r="G17">
-        <v>0.01096152432303771</v>
+        <v>0.4790177347602291</v>
       </c>
       <c r="H17">
-        <v>0.0555349373482778</v>
+        <v>0.3189281133539701</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -956,25 +911,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.004587189962314414</v>
+        <v>-0.1106570732907728</v>
       </c>
       <c r="C18">
-        <v>-0.5235563892514227</v>
+        <v>0.5574356245296381</v>
       </c>
       <c r="D18">
-        <v>-0.04711500398750978</v>
+        <v>0.3494793248607413</v>
       </c>
       <c r="E18">
-        <v>-0.1927342150353754</v>
+        <v>-0.0537519294468537</v>
       </c>
       <c r="F18">
-        <v>-0.0612817891943197</v>
+        <v>0.4470476400263193</v>
       </c>
       <c r="G18">
-        <v>-0.01036017418006807</v>
+        <v>0.2890118858004561</v>
       </c>
       <c r="H18">
-        <v>-0.405423054748119</v>
+        <v>0.3455519702652192</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -982,25 +937,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.5260169647433546</v>
+        <v>0.5913088222741343</v>
       </c>
       <c r="C19">
-        <v>-0.05137068376835741</v>
+        <v>0.3522324851175385</v>
       </c>
       <c r="D19">
-        <v>-0.1974123165853111</v>
+        <v>-0.06534086029760827</v>
       </c>
       <c r="E19">
-        <v>-0.06599669411565129</v>
+        <v>0.4289262259694052</v>
       </c>
       <c r="F19">
-        <v>-0.01502993377330319</v>
+        <v>0.267911772437701</v>
       </c>
       <c r="G19">
-        <v>-0.410047744940668</v>
-      </c>
-      <c r="H19">
-        <v>-0.1553091497739889</v>
+        <v>0.3230936335787457</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1008,25 +960,19 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2135855623846904</v>
+        <v>0.09495705561128835</v>
       </c>
       <c r="C20">
-        <v>-0.06234656537311939</v>
+        <v>-0.1966201317798049</v>
       </c>
       <c r="D20">
-        <v>0.0138946332479421</v>
+        <v>0.3555705446956575</v>
       </c>
       <c r="E20">
-        <v>0.0417658602104356</v>
+        <v>0.2206704977705274</v>
       </c>
       <c r="F20">
-        <v>-0.362906110378566</v>
-      </c>
-      <c r="G20">
-        <v>-0.1122029441956814</v>
-      </c>
-      <c r="H20">
-        <v>0.1065288750550792</v>
+        <v>0.2876467492000076</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1034,25 +980,16 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.1300102632924844</v>
+        <v>-0.2398842457485278</v>
       </c>
       <c r="C21">
-        <v>0.00888099880676374</v>
+        <v>0.3272291486687826</v>
       </c>
       <c r="D21">
-        <v>0.06313616294635133</v>
+        <v>0.1959944722584051</v>
       </c>
       <c r="E21">
-        <v>-0.3304359561846383</v>
-      </c>
-      <c r="F21">
-        <v>-0.07506199009359621</v>
-      </c>
-      <c r="G21">
-        <v>0.1456359881641034</v>
-      </c>
-      <c r="H21">
-        <v>-0.08990357932170889</v>
+        <v>0.2633601162231758</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1060,25 +997,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06691842984134894</v>
+        <v>0.4374203038949512</v>
       </c>
       <c r="C22">
-        <v>0.08758809628198994</v>
+        <v>0.2521171062027519</v>
       </c>
       <c r="D22">
-        <v>-0.3207903744352101</v>
-      </c>
-      <c r="E22">
-        <v>-0.07192768006479133</v>
-      </c>
-      <c r="F22">
-        <v>0.1459070906717618</v>
-      </c>
-      <c r="G22">
-        <v>-0.09089156730223147</v>
-      </c>
-      <c r="H22">
-        <v>-0.2703100420005815</v>
+        <v>0.2974419321570869</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1086,25 +1011,10 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.05077946203237782</v>
+        <v>0.09526702093765275</v>
       </c>
       <c r="C23">
-        <v>-0.344626946110449</v>
-      </c>
-      <c r="D23">
-        <v>-0.09000824431623794</v>
-      </c>
-      <c r="E23">
-        <v>0.1303795298704019</v>
-      </c>
-      <c r="F23">
-        <v>-0.1052864881356162</v>
-      </c>
-      <c r="G23">
-        <v>-0.2842023355090271</v>
-      </c>
-      <c r="H23">
-        <v>-0.2947364119262331</v>
+        <v>0.2022742013914471</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1112,351 +1022,6 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.3684044713855114</v>
-      </c>
-      <c r="C24">
-        <v>-0.101413555368407</v>
-      </c>
-      <c r="D24">
-        <v>0.124694245049897</v>
-      </c>
-      <c r="E24">
-        <v>-0.1083274204870155</v>
-      </c>
-      <c r="F24">
-        <v>-0.2860207919609198</v>
-      </c>
-      <c r="G24">
-        <v>-0.2959897223388263</v>
-      </c>
-      <c r="H24">
-        <v>-0.5034352712569941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.0822944582731665</v>
-      </c>
-      <c r="C25">
-        <v>0.2248716626294139</v>
-      </c>
-      <c r="D25">
-        <v>-0.04696104924847117</v>
-      </c>
-      <c r="E25">
-        <v>-0.2426806063420137</v>
-      </c>
-      <c r="F25">
-        <v>-0.2610220372837692</v>
-      </c>
-      <c r="G25">
-        <v>-0.4723563104746108</v>
-      </c>
-      <c r="H25">
-        <v>-0.2568270884946112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.1897544906099763</v>
-      </c>
-      <c r="C26">
-        <v>-0.06321325091036167</v>
-      </c>
-      <c r="D26">
-        <v>-0.2502069135106927</v>
-      </c>
-      <c r="E26">
-        <v>-0.2645492721285351</v>
-      </c>
-      <c r="F26">
-        <v>-0.4740505278572057</v>
-      </c>
-      <c r="G26">
-        <v>-0.2576814705407012</v>
-      </c>
-      <c r="H26">
-        <v>0.05160892090855684</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>-0.1414695961309799</v>
-      </c>
-      <c r="C27">
-        <v>-0.2791950053566942</v>
-      </c>
-      <c r="D27">
-        <v>-0.2708243371007503</v>
-      </c>
-      <c r="E27">
-        <v>-0.4698642071905083</v>
-      </c>
-      <c r="F27">
-        <v>-0.2486761060184952</v>
-      </c>
-      <c r="G27">
-        <v>0.06283442082819635</v>
-      </c>
-      <c r="H27">
-        <v>-0.09063329381595758</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>-0.2127978715194913</v>
-      </c>
-      <c r="C28">
-        <v>-0.2370382080001907</v>
-      </c>
-      <c r="D28">
-        <v>-0.4510402066139358</v>
-      </c>
-      <c r="E28">
-        <v>-0.2367077224301228</v>
-      </c>
-      <c r="F28">
-        <v>0.07166147465750705</v>
-      </c>
-      <c r="G28">
-        <v>-0.08324563629214543</v>
-      </c>
-      <c r="H28">
-        <v>0.5669047111967596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>-0.1284196148407921</v>
-      </c>
-      <c r="C29">
-        <v>-0.3892880536239818</v>
-      </c>
-      <c r="D29">
-        <v>-0.1956617690156243</v>
-      </c>
-      <c r="E29">
-        <v>0.1035623046680138</v>
-      </c>
-      <c r="F29">
-        <v>-0.05538318383206281</v>
-      </c>
-      <c r="G29">
-        <v>0.5929841687531761</v>
-      </c>
-      <c r="H29">
-        <v>0.3759056446645694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>-0.3309607445664588</v>
-      </c>
-      <c r="C30">
-        <v>-0.1695596134231208</v>
-      </c>
-      <c r="D30">
-        <v>0.1144594849056954</v>
-      </c>
-      <c r="E30">
-        <v>-0.05164513997429743</v>
-      </c>
-      <c r="F30">
-        <v>0.5933559342816008</v>
-      </c>
-      <c r="G30">
-        <v>0.3746965501502769</v>
-      </c>
-      <c r="H30">
-        <v>-0.033479364467699</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>-0.01772937608965819</v>
-      </c>
-      <c r="C31">
-        <v>0.1904199002428446</v>
-      </c>
-      <c r="D31">
-        <v>-0.01245745804686382</v>
-      </c>
-      <c r="E31">
-        <v>0.6148928434241717</v>
-      </c>
-      <c r="F31">
-        <v>0.3877598625592121</v>
-      </c>
-      <c r="G31">
-        <v>-0.02448210058422801</v>
-      </c>
-      <c r="H31">
-        <v>0.4720825582591874</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.2009879203755026</v>
-      </c>
-      <c r="C32">
-        <v>-0.003682669475092215</v>
-      </c>
-      <c r="D32">
-        <v>0.6226952474679071</v>
-      </c>
-      <c r="E32">
-        <v>0.3950699233937206</v>
-      </c>
-      <c r="F32">
-        <v>-0.01742125293059998</v>
-      </c>
-      <c r="G32">
-        <v>0.4790177347602291</v>
-      </c>
-      <c r="H32">
-        <v>0.3189281133539701</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>-0.1106570732907728</v>
-      </c>
-      <c r="C33">
-        <v>0.5574356245296381</v>
-      </c>
-      <c r="D33">
-        <v>0.3494793248607413</v>
-      </c>
-      <c r="E33">
-        <v>-0.0537519294468537</v>
-      </c>
-      <c r="F33">
-        <v>0.4470476400263193</v>
-      </c>
-      <c r="G33">
-        <v>0.2890118858004561</v>
-      </c>
-      <c r="H33">
-        <v>0.3455519702652192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.5913088222741343</v>
-      </c>
-      <c r="C34">
-        <v>0.3522324851175385</v>
-      </c>
-      <c r="D34">
-        <v>-0.06534086029760827</v>
-      </c>
-      <c r="E34">
-        <v>0.4289262259694052</v>
-      </c>
-      <c r="F34">
-        <v>0.267911772437701</v>
-      </c>
-      <c r="G34">
-        <v>0.3230936335787457</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.09495705561128835</v>
-      </c>
-      <c r="C35">
-        <v>-0.1966201317798049</v>
-      </c>
-      <c r="D35">
-        <v>0.3555705446956575</v>
-      </c>
-      <c r="E35">
-        <v>0.2206704977705274</v>
-      </c>
-      <c r="F35">
-        <v>0.2876467492000076</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>-0.2398842457485278</v>
-      </c>
-      <c r="C36">
-        <v>0.3272291486687826</v>
-      </c>
-      <c r="D36">
-        <v>0.1959944722584051</v>
-      </c>
-      <c r="E36">
-        <v>0.2633601162231758</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.4374203038949512</v>
-      </c>
-      <c r="C37">
-        <v>0.2521171062027519</v>
-      </c>
-      <c r="D37">
-        <v>0.2974419321570869</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.09526702093765275</v>
-      </c>
-      <c r="C38">
-        <v>0.2022742013914471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
         <v>0.1534105877790901</v>
       </c>
     </row>
